--- a/Results/Emissions/RR/Cumulative_Emission_full.xlsx
+++ b/Results/Emissions/RR/Cumulative_Emission_full.xlsx
@@ -10,13 +10,15 @@
     <sheet name="Total" sheetId="1" r:id="rId1"/>
     <sheet name="Effective" sheetId="2" r:id="rId2"/>
     <sheet name="Avoided" sheetId="3" r:id="rId3"/>
+    <sheet name="Primary" sheetId="4" r:id="rId4"/>
+    <sheet name="Secondary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>Neodymium</t>
   </si>
@@ -4536,4 +4538,2774 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:91">
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>46.87313132580815</v>
+      </c>
+      <c r="C2">
+        <v>113.2051171016141</v>
+      </c>
+      <c r="D2">
+        <v>177.3140534485772</v>
+      </c>
+      <c r="E2">
+        <v>238.1869256005547</v>
+      </c>
+      <c r="F2">
+        <v>336.1716851120113</v>
+      </c>
+      <c r="G2">
+        <v>406.8667652563398</v>
+      </c>
+      <c r="H2">
+        <v>532.6405890301089</v>
+      </c>
+      <c r="I2">
+        <v>652.1813742057727</v>
+      </c>
+      <c r="J2">
+        <v>764.3056878063406</v>
+      </c>
+      <c r="K2">
+        <v>865.4887788743888</v>
+      </c>
+      <c r="L2">
+        <v>1075.239552980413</v>
+      </c>
+      <c r="M2">
+        <v>1217.836746168755</v>
+      </c>
+      <c r="N2">
+        <v>1496.681150046828</v>
+      </c>
+      <c r="O2">
+        <v>1796.96931967523</v>
+      </c>
+      <c r="P2">
+        <v>2118.762356992126</v>
+      </c>
+      <c r="Q2">
+        <v>2825.485738224559</v>
+      </c>
+      <c r="R2">
+        <v>3582.638500724153</v>
+      </c>
+      <c r="S2">
+        <v>4390.334052767774</v>
+      </c>
+      <c r="T2">
+        <v>5248.759095103966</v>
+      </c>
+      <c r="U2">
+        <v>6158.070109461025</v>
+      </c>
+      <c r="V2">
+        <v>7069.080840727024</v>
+      </c>
+      <c r="W2">
+        <v>8026.767972692925</v>
+      </c>
+      <c r="X2">
+        <v>9031.25548510346</v>
+      </c>
+      <c r="Y2">
+        <v>10082.80100746944</v>
+      </c>
+      <c r="Z2">
+        <v>11181.75998102351</v>
+      </c>
+      <c r="AA2">
+        <v>11676.08268605295</v>
+      </c>
+      <c r="AB2">
+        <v>12179.51339658499</v>
+      </c>
+      <c r="AC2">
+        <v>12693.00414792961</v>
+      </c>
+      <c r="AD2">
+        <v>13216.74977390627</v>
+      </c>
+      <c r="AE2">
+        <v>13751.67599408425</v>
+      </c>
+      <c r="AF2">
+        <v>14065.3796787364</v>
+      </c>
+      <c r="AG2">
+        <v>14378.08266914756</v>
+      </c>
+      <c r="AH2">
+        <v>14692.94767509797</v>
+      </c>
+      <c r="AI2">
+        <v>15013.51822254717</v>
+      </c>
+      <c r="AJ2">
+        <v>15340.311274622</v>
+      </c>
+      <c r="AK2">
+        <v>15778.88561501733</v>
+      </c>
+      <c r="AL2">
+        <v>16236.42003845135</v>
+      </c>
+      <c r="AM2">
+        <v>16718.58294486174</v>
+      </c>
+      <c r="AN2">
+        <v>17231.03918901696</v>
+      </c>
+      <c r="AO2">
+        <v>17766.59362117378</v>
+      </c>
+      <c r="AP2">
+        <v>18504.83345368649</v>
+      </c>
+      <c r="AQ2">
+        <v>19263.19769492597</v>
+      </c>
+      <c r="AR2">
+        <v>20039.05295603865</v>
+      </c>
+      <c r="AS2">
+        <v>20829.61949856104</v>
+      </c>
+      <c r="AT2">
+        <v>21633.59726493466</v>
+      </c>
+      <c r="AU2">
+        <v>22489.94021060254</v>
+      </c>
+      <c r="AV2">
+        <v>23348.69177871975</v>
+      </c>
+      <c r="AW2">
+        <v>24194.0584516279</v>
+      </c>
+      <c r="AX2">
+        <v>25014.34414376388</v>
+      </c>
+      <c r="AY2">
+        <v>25823.27262649762</v>
+      </c>
+      <c r="AZ2">
+        <v>26583.37382785223</v>
+      </c>
+      <c r="BA2">
+        <v>27343.54102682744</v>
+      </c>
+      <c r="BB2">
+        <v>28099.34404076969</v>
+      </c>
+      <c r="BC2">
+        <v>28848.28655262788</v>
+      </c>
+      <c r="BD2">
+        <v>29597.91781212753</v>
+      </c>
+      <c r="BE2">
+        <v>30320.02337244111</v>
+      </c>
+      <c r="BF2">
+        <v>31055.90542200751</v>
+      </c>
+      <c r="BG2">
+        <v>31811.26504315967</v>
+      </c>
+      <c r="BH2">
+        <v>32591.98112019227</v>
+      </c>
+      <c r="BI2">
+        <v>33400.58127556734</v>
+      </c>
+      <c r="BJ2">
+        <v>34218.31585003488</v>
+      </c>
+      <c r="BK2">
+        <v>35068.13179134284</v>
+      </c>
+      <c r="BL2">
+        <v>35950.87672143138</v>
+      </c>
+      <c r="BM2">
+        <v>36865.04354538512</v>
+      </c>
+      <c r="BN2">
+        <v>37803.23881848979</v>
+      </c>
+      <c r="BO2">
+        <v>38748.36830021706</v>
+      </c>
+      <c r="BP2">
+        <v>39708.80273811907</v>
+      </c>
+      <c r="BQ2">
+        <v>40682.35389314721</v>
+      </c>
+      <c r="BR2">
+        <v>41664.1800798328</v>
+      </c>
+      <c r="BS2">
+        <v>42645.00440121266</v>
+      </c>
+      <c r="BT2">
+        <v>43602.78573184101</v>
+      </c>
+      <c r="BU2">
+        <v>44547.47694614763</v>
+      </c>
+      <c r="BV2">
+        <v>45483.42590519444</v>
+      </c>
+      <c r="BW2">
+        <v>46415.75161342772</v>
+      </c>
+      <c r="BX2">
+        <v>47346.41455485948</v>
+      </c>
+      <c r="BY2">
+        <v>48263.20251341912</v>
+      </c>
+      <c r="BZ2">
+        <v>49178.11582177493</v>
+      </c>
+      <c r="CA2">
+        <v>50094.82363464758</v>
+      </c>
+      <c r="CB2">
+        <v>51018.67652522639</v>
+      </c>
+      <c r="CC2">
+        <v>51955.74130588958</v>
+      </c>
+      <c r="CD2">
+        <v>52896.56725639283</v>
+      </c>
+      <c r="CE2">
+        <v>53859.2915617037</v>
+      </c>
+      <c r="CF2">
+        <v>54846.06480109008</v>
+      </c>
+      <c r="CG2">
+        <v>55858.36837542744</v>
+      </c>
+      <c r="CH2">
+        <v>56897.84021126255</v>
+      </c>
+      <c r="CI2">
+        <v>57941.61313191876</v>
+      </c>
+      <c r="CJ2">
+        <v>59009.26166506044</v>
+      </c>
+      <c r="CK2">
+        <v>60096.00403635827</v>
+      </c>
+      <c r="CL2">
+        <v>61197.38682143698</v>
+      </c>
+      <c r="CM2">
+        <v>62310.54611080207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16.484167527155</v>
+      </c>
+      <c r="C3">
+        <v>39.87215674757091</v>
+      </c>
+      <c r="D3">
+        <v>62.45154766850195</v>
+      </c>
+      <c r="E3">
+        <v>83.87752593739066</v>
+      </c>
+      <c r="F3">
+        <v>118.5008882364333</v>
+      </c>
+      <c r="G3">
+        <v>143.3951321717386</v>
+      </c>
+      <c r="H3">
+        <v>187.8969278719679</v>
+      </c>
+      <c r="I3">
+        <v>230.1558288103286</v>
+      </c>
+      <c r="J3">
+        <v>269.7639691475011</v>
+      </c>
+      <c r="K3">
+        <v>305.4611746681904</v>
+      </c>
+      <c r="L3">
+        <v>379.841371578418</v>
+      </c>
+      <c r="M3">
+        <v>430.2795456887374</v>
+      </c>
+      <c r="N3">
+        <v>529.2515138202181</v>
+      </c>
+      <c r="O3">
+        <v>635.8563976066122</v>
+      </c>
+      <c r="P3">
+        <v>750.1160248569172</v>
+      </c>
+      <c r="Q3">
+        <v>1001.510025603133</v>
+      </c>
+      <c r="R3">
+        <v>1270.864666141103</v>
+      </c>
+      <c r="S3">
+        <v>1558.220316945532</v>
+      </c>
+      <c r="T3">
+        <v>1863.643477410892</v>
+      </c>
+      <c r="U3">
+        <v>2187.189886489796</v>
+      </c>
+      <c r="V3">
+        <v>2511.330030532857</v>
+      </c>
+      <c r="W3">
+        <v>2852.093591175997</v>
+      </c>
+      <c r="X3">
+        <v>3209.524775522423</v>
+      </c>
+      <c r="Y3">
+        <v>3583.715354221383</v>
+      </c>
+      <c r="Z3">
+        <v>3974.791956799756</v>
+      </c>
+      <c r="AA3">
+        <v>4150.416158038474</v>
+      </c>
+      <c r="AB3">
+        <v>4329.274485470033</v>
+      </c>
+      <c r="AC3">
+        <v>4511.706098041969</v>
+      </c>
+      <c r="AD3">
+        <v>4697.780484538041</v>
+      </c>
+      <c r="AE3">
+        <v>4887.827406250624</v>
+      </c>
+      <c r="AF3">
+        <v>4999.034251090826</v>
+      </c>
+      <c r="AG3">
+        <v>5109.871699547013</v>
+      </c>
+      <c r="AH3">
+        <v>5221.46642792071</v>
+      </c>
+      <c r="AI3">
+        <v>5335.080847224597</v>
+      </c>
+      <c r="AJ3">
+        <v>5450.898614314179</v>
+      </c>
+      <c r="AK3">
+        <v>5606.532479975726</v>
+      </c>
+      <c r="AL3">
+        <v>5768.907359263379</v>
+      </c>
+      <c r="AM3">
+        <v>5940.042500209748</v>
+      </c>
+      <c r="AN3">
+        <v>6121.955977329978</v>
+      </c>
+      <c r="AO3">
+        <v>6312.085123884203</v>
+      </c>
+      <c r="AP3">
+        <v>6574.424694304321</v>
+      </c>
+      <c r="AQ3">
+        <v>6843.921964431858</v>
+      </c>
+      <c r="AR3">
+        <v>7119.639109577653</v>
+      </c>
+      <c r="AS3">
+        <v>7400.586224739663</v>
+      </c>
+      <c r="AT3">
+        <v>7686.300558037356</v>
+      </c>
+      <c r="AU3">
+        <v>7990.662197057493</v>
+      </c>
+      <c r="AV3">
+        <v>8295.87101785471</v>
+      </c>
+      <c r="AW3">
+        <v>8596.300483382953</v>
+      </c>
+      <c r="AX3">
+        <v>8887.783671252784</v>
+      </c>
+      <c r="AY3">
+        <v>9175.20995112287</v>
+      </c>
+      <c r="AZ3">
+        <v>9445.224431014623</v>
+      </c>
+      <c r="BA3">
+        <v>9715.250243727443</v>
+      </c>
+      <c r="BB3">
+        <v>9983.708575214529</v>
+      </c>
+      <c r="BC3">
+        <v>10249.70942262611</v>
+      </c>
+      <c r="BD3">
+        <v>10515.94236623993</v>
+      </c>
+      <c r="BE3">
+        <v>10772.35116350278</v>
+      </c>
+      <c r="BF3">
+        <v>11033.65340760347</v>
+      </c>
+      <c r="BG3">
+        <v>11301.87957684188</v>
+      </c>
+      <c r="BH3">
+        <v>11579.12362246842</v>
+      </c>
+      <c r="BI3">
+        <v>11866.28569684226</v>
+      </c>
+      <c r="BJ3">
+        <v>12156.68275356868</v>
+      </c>
+      <c r="BK3">
+        <v>12458.49225776896</v>
+      </c>
+      <c r="BL3">
+        <v>12772.01665327281</v>
+      </c>
+      <c r="BM3">
+        <v>13096.71948614182</v>
+      </c>
+      <c r="BN3">
+        <v>13429.96682287885</v>
+      </c>
+      <c r="BO3">
+        <v>13765.66615258967</v>
+      </c>
+      <c r="BP3">
+        <v>14106.80104066428</v>
+      </c>
+      <c r="BQ3">
+        <v>14452.59212167574</v>
+      </c>
+      <c r="BR3">
+        <v>14801.31467056048</v>
+      </c>
+      <c r="BS3">
+        <v>15149.66372718911</v>
+      </c>
+      <c r="BT3">
+        <v>15489.78444226203</v>
+      </c>
+      <c r="BU3">
+        <v>15825.22393295253</v>
+      </c>
+      <c r="BV3">
+        <v>16157.53106881524</v>
+      </c>
+      <c r="BW3">
+        <v>16488.52945463141</v>
+      </c>
+      <c r="BX3">
+        <v>16818.91768589137</v>
+      </c>
+      <c r="BY3">
+        <v>17144.34274361794</v>
+      </c>
+      <c r="BZ3">
+        <v>17469.08091459628</v>
+      </c>
+      <c r="CA3">
+        <v>17794.43949243226</v>
+      </c>
+      <c r="CB3">
+        <v>18122.32483685914</v>
+      </c>
+      <c r="CC3">
+        <v>18454.89844116679</v>
+      </c>
+      <c r="CD3">
+        <v>18788.79047491376</v>
+      </c>
+      <c r="CE3">
+        <v>19130.46332307471</v>
+      </c>
+      <c r="CF3">
+        <v>19480.68296862975</v>
+      </c>
+      <c r="CG3">
+        <v>19839.97715506566</v>
+      </c>
+      <c r="CH3">
+        <v>20208.92961633138</v>
+      </c>
+      <c r="CI3">
+        <v>20579.39083369078</v>
+      </c>
+      <c r="CJ3">
+        <v>20958.33649410067</v>
+      </c>
+      <c r="CK3">
+        <v>21344.06303214781</v>
+      </c>
+      <c r="CL3">
+        <v>21734.983804058</v>
+      </c>
+      <c r="CM3">
+        <v>22130.07852190634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3257.482103532024</v>
+      </c>
+      <c r="C4">
+        <v>6255.506738661435</v>
+      </c>
+      <c r="D4">
+        <v>8715.457230380225</v>
+      </c>
+      <c r="E4">
+        <v>11518.7661656467</v>
+      </c>
+      <c r="F4">
+        <v>15057.95519514364</v>
+      </c>
+      <c r="G4">
+        <v>18357.48131320895</v>
+      </c>
+      <c r="H4">
+        <v>21902.99170160075</v>
+      </c>
+      <c r="I4">
+        <v>25011.56733635519</v>
+      </c>
+      <c r="J4">
+        <v>28383.76292777478</v>
+      </c>
+      <c r="K4">
+        <v>32362.56720785289</v>
+      </c>
+      <c r="L4">
+        <v>36119.44630174948</v>
+      </c>
+      <c r="M4">
+        <v>40431.75400612659</v>
+      </c>
+      <c r="N4">
+        <v>63396.55288106883</v>
+      </c>
+      <c r="O4">
+        <v>86426.14051335226</v>
+      </c>
+      <c r="P4">
+        <v>109510.3016687406</v>
+      </c>
+      <c r="Q4">
+        <v>182817.6879327054</v>
+      </c>
+      <c r="R4">
+        <v>256235.0802320694</v>
+      </c>
+      <c r="S4">
+        <v>329768.4425492598</v>
+      </c>
+      <c r="T4">
+        <v>403421.4439855013</v>
+      </c>
+      <c r="U4">
+        <v>477195.9726618062</v>
+      </c>
+      <c r="V4">
+        <v>554168.7822126722</v>
+      </c>
+      <c r="W4">
+        <v>631260.9639630102</v>
+      </c>
+      <c r="X4">
+        <v>708465.2124350197</v>
+      </c>
+      <c r="Y4">
+        <v>785780.6810334538</v>
+      </c>
+      <c r="Z4">
+        <v>863206.7656886971</v>
+      </c>
+      <c r="AA4">
+        <v>884591.9299236578</v>
+      </c>
+      <c r="AB4">
+        <v>906030.6947282363</v>
+      </c>
+      <c r="AC4">
+        <v>927520.165734012</v>
+      </c>
+      <c r="AD4">
+        <v>949032.6871625283</v>
+      </c>
+      <c r="AE4">
+        <v>970567.3467545036</v>
+      </c>
+      <c r="AF4">
+        <v>974124.7791637967</v>
+      </c>
+      <c r="AG4">
+        <v>977386.7703320455</v>
+      </c>
+      <c r="AH4">
+        <v>980440.7912527249</v>
+      </c>
+      <c r="AI4">
+        <v>983428.3548133619</v>
+      </c>
+      <c r="AJ4">
+        <v>986319.4720196903</v>
+      </c>
+      <c r="AK4">
+        <v>998136.2292034283</v>
+      </c>
+      <c r="AL4">
+        <v>1010291.065016909</v>
+      </c>
+      <c r="AM4">
+        <v>1022883.321583373</v>
+      </c>
+      <c r="AN4">
+        <v>1036016.212899201</v>
+      </c>
+      <c r="AO4">
+        <v>1049454.40664614</v>
+      </c>
+      <c r="AP4">
+        <v>1074890.393842572</v>
+      </c>
+      <c r="AQ4">
+        <v>1100368.223872163</v>
+      </c>
+      <c r="AR4">
+        <v>1125845.975532557</v>
+      </c>
+      <c r="AS4">
+        <v>1151283.053448032</v>
+      </c>
+      <c r="AT4">
+        <v>1176668.889201007</v>
+      </c>
+      <c r="AU4">
+        <v>1205442.576866092</v>
+      </c>
+      <c r="AV4">
+        <v>1233991.897455211</v>
+      </c>
+      <c r="AW4">
+        <v>1262092.890352457</v>
+      </c>
+      <c r="AX4">
+        <v>1289602.572246171</v>
+      </c>
+      <c r="AY4">
+        <v>1316777.641525201</v>
+      </c>
+      <c r="AZ4">
+        <v>1341641.011206611</v>
+      </c>
+      <c r="BA4">
+        <v>1366401.271720668</v>
+      </c>
+      <c r="BB4">
+        <v>1391076.573834719</v>
+      </c>
+      <c r="BC4">
+        <v>1415800.199534922</v>
+      </c>
+      <c r="BD4">
+        <v>1440520.17425881</v>
+      </c>
+      <c r="BE4">
+        <v>1463986.233792122</v>
+      </c>
+      <c r="BF4">
+        <v>1487403.261258814</v>
+      </c>
+      <c r="BG4">
+        <v>1511024.062875114</v>
+      </c>
+      <c r="BH4">
+        <v>1534992.729134694</v>
+      </c>
+      <c r="BI4">
+        <v>1559349.254716041</v>
+      </c>
+      <c r="BJ4">
+        <v>1583913.976410322</v>
+      </c>
+      <c r="BK4">
+        <v>1608869.585295021</v>
+      </c>
+      <c r="BL4">
+        <v>1634137.756737707</v>
+      </c>
+      <c r="BM4">
+        <v>1659614.171095737</v>
+      </c>
+      <c r="BN4">
+        <v>1685170.876746773</v>
+      </c>
+      <c r="BO4">
+        <v>1710732.223710577</v>
+      </c>
+      <c r="BP4">
+        <v>1736255.763774754</v>
+      </c>
+      <c r="BQ4">
+        <v>1761709.637421962</v>
+      </c>
+      <c r="BR4">
+        <v>1787026.022484398</v>
+      </c>
+      <c r="BS4">
+        <v>1812083.589565856</v>
+      </c>
+      <c r="BT4">
+        <v>1836467.118148157</v>
+      </c>
+      <c r="BU4">
+        <v>1860479.62596934</v>
+      </c>
+      <c r="BV4">
+        <v>1884363.159115729</v>
+      </c>
+      <c r="BW4">
+        <v>1908366.2930046</v>
+      </c>
+      <c r="BX4">
+        <v>1932393.073483628</v>
+      </c>
+      <c r="BY4">
+        <v>1955863.851402245</v>
+      </c>
+      <c r="BZ4">
+        <v>1979290.594212038</v>
+      </c>
+      <c r="CA4">
+        <v>2002653.271684889</v>
+      </c>
+      <c r="CB4">
+        <v>2025921.715083271</v>
+      </c>
+      <c r="CC4">
+        <v>2049010.355018229</v>
+      </c>
+      <c r="CD4">
+        <v>2071194.157929888</v>
+      </c>
+      <c r="CE4">
+        <v>2093672.187302318</v>
+      </c>
+      <c r="CF4">
+        <v>2116473.771381326</v>
+      </c>
+      <c r="CG4">
+        <v>2139592.431757044</v>
+      </c>
+      <c r="CH4">
+        <v>2162993.909190089</v>
+      </c>
+      <c r="CI4">
+        <v>2185064.710427584</v>
+      </c>
+      <c r="CJ4">
+        <v>2207258.568081077</v>
+      </c>
+      <c r="CK4">
+        <v>2229487.159431076</v>
+      </c>
+      <c r="CL4">
+        <v>2251684.818829136</v>
+      </c>
+      <c r="CM4">
+        <v>2273808.126890091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3597.461903632588</v>
+      </c>
+      <c r="C5">
+        <v>6229.08687798743</v>
+      </c>
+      <c r="D5">
+        <v>8682.553297878996</v>
+      </c>
+      <c r="E5">
+        <v>11035.07613656178</v>
+      </c>
+      <c r="F5">
+        <v>13751.27343594421</v>
+      </c>
+      <c r="G5">
+        <v>17255.22819812203</v>
+      </c>
+      <c r="H5">
+        <v>21090.28714172596</v>
+      </c>
+      <c r="I5">
+        <v>24220.54851209502</v>
+      </c>
+      <c r="J5">
+        <v>27171.14920556005</v>
+      </c>
+      <c r="K5">
+        <v>30438.61419360097</v>
+      </c>
+      <c r="L5">
+        <v>33727.25659942634</v>
+      </c>
+      <c r="M5">
+        <v>38607.98509675338</v>
+      </c>
+      <c r="N5">
+        <v>74933.20290642224</v>
+      </c>
+      <c r="O5">
+        <v>111258.2264411889</v>
+      </c>
+      <c r="P5">
+        <v>147582.0574966144</v>
+      </c>
+      <c r="Q5">
+        <v>268781.3878662561</v>
+      </c>
+      <c r="R5">
+        <v>389975.8061472951</v>
+      </c>
+      <c r="S5">
+        <v>511161.8900258195</v>
+      </c>
+      <c r="T5">
+        <v>632334.579139919</v>
+      </c>
+      <c r="U5">
+        <v>753486.4226219923</v>
+      </c>
+      <c r="V5">
+        <v>880467.7784609422</v>
+      </c>
+      <c r="W5">
+        <v>1007401.967538437</v>
+      </c>
+      <c r="X5">
+        <v>1134267.319431524</v>
+      </c>
+      <c r="Y5">
+        <v>1261034.280009472</v>
+      </c>
+      <c r="Z5">
+        <v>1387663.476448364</v>
+      </c>
+      <c r="AA5">
+        <v>1420282.163449587</v>
+      </c>
+      <c r="AB5">
+        <v>1452646.28842645</v>
+      </c>
+      <c r="AC5">
+        <v>1484673.804108978</v>
+      </c>
+      <c r="AD5">
+        <v>1516263.934160956</v>
+      </c>
+      <c r="AE5">
+        <v>1547295.435787666</v>
+      </c>
+      <c r="AF5">
+        <v>1546217.483471032</v>
+      </c>
+      <c r="AG5">
+        <v>1543856.088056056</v>
+      </c>
+      <c r="AH5">
+        <v>1539942.844846315</v>
+      </c>
+      <c r="AI5">
+        <v>1534746.704230813</v>
+      </c>
+      <c r="AJ5">
+        <v>1528114.244318502</v>
+      </c>
+      <c r="AK5">
+        <v>1532557.066177702</v>
+      </c>
+      <c r="AL5">
+        <v>1535220.385590669</v>
+      </c>
+      <c r="AM5">
+        <v>1535994.542882351</v>
+      </c>
+      <c r="AN5">
+        <v>1534837.773091998</v>
+      </c>
+      <c r="AO5">
+        <v>1531793.413435316</v>
+      </c>
+      <c r="AP5">
+        <v>1545093.56285895</v>
+      </c>
+      <c r="AQ5">
+        <v>1556884.758076592</v>
+      </c>
+      <c r="AR5">
+        <v>1567495.909846602</v>
+      </c>
+      <c r="AS5">
+        <v>1577326.49818943</v>
+      </c>
+      <c r="AT5">
+        <v>1586817.859779584</v>
+      </c>
+      <c r="AU5">
+        <v>1601611.025984229</v>
+      </c>
+      <c r="AV5">
+        <v>1616935.343914003</v>
+      </c>
+      <c r="AW5">
+        <v>1633152.55924985</v>
+      </c>
+      <c r="AX5">
+        <v>1650539.272248364</v>
+      </c>
+      <c r="AY5">
+        <v>1669269.205026312</v>
+      </c>
+      <c r="AZ5">
+        <v>1686307.017893337</v>
+      </c>
+      <c r="BA5">
+        <v>1704694.853504288</v>
+      </c>
+      <c r="BB5">
+        <v>1724269.532462616</v>
+      </c>
+      <c r="BC5">
+        <v>1744772.971552885</v>
+      </c>
+      <c r="BD5">
+        <v>1765874.125010888</v>
+      </c>
+      <c r="BE5">
+        <v>1785463.271545193</v>
+      </c>
+      <c r="BF5">
+        <v>1804883.563969062</v>
+      </c>
+      <c r="BG5">
+        <v>1823758.67645142</v>
+      </c>
+      <c r="BH5">
+        <v>1841750.113086258</v>
+      </c>
+      <c r="BI5">
+        <v>1858574.142304264</v>
+      </c>
+      <c r="BJ5">
+        <v>1873716.927226053</v>
+      </c>
+      <c r="BK5">
+        <v>1887328.07927957</v>
+      </c>
+      <c r="BL5">
+        <v>1899336.247279969</v>
+      </c>
+      <c r="BM5">
+        <v>1909744.875856651</v>
+      </c>
+      <c r="BN5">
+        <v>1918628.791572363</v>
+      </c>
+      <c r="BO5">
+        <v>1926144.643552403</v>
+      </c>
+      <c r="BP5">
+        <v>1932467.636881996</v>
+      </c>
+      <c r="BQ5">
+        <v>1937830.554678865</v>
+      </c>
+      <c r="BR5">
+        <v>1942490.746214836</v>
+      </c>
+      <c r="BS5">
+        <v>1946713.447474384</v>
+      </c>
+      <c r="BT5">
+        <v>1950245.434279107</v>
+      </c>
+      <c r="BU5">
+        <v>1953827.157282766</v>
+      </c>
+      <c r="BV5">
+        <v>1957650.253996854</v>
+      </c>
+      <c r="BW5">
+        <v>1961856.091292539</v>
+      </c>
+      <c r="BX5">
+        <v>1966528.912737275</v>
+      </c>
+      <c r="BY5">
+        <v>1970841.623258554</v>
+      </c>
+      <c r="BZ5">
+        <v>1975613.208969616</v>
+      </c>
+      <c r="CA5">
+        <v>1980758.469471351</v>
+      </c>
+      <c r="CB5">
+        <v>1986148.503803213</v>
+      </c>
+      <c r="CC5">
+        <v>1991621.699696934</v>
+      </c>
+      <c r="CD5">
+        <v>1995558.93544815</v>
+      </c>
+      <c r="CE5">
+        <v>1999209.216450679</v>
+      </c>
+      <c r="CF5">
+        <v>2002389.977120907</v>
+      </c>
+      <c r="CG5">
+        <v>2004936.126188275</v>
+      </c>
+      <c r="CH5">
+        <v>2006709.497369182</v>
+      </c>
+      <c r="CI5">
+        <v>2005357.05909887</v>
+      </c>
+      <c r="CJ5">
+        <v>2003061.675282397</v>
+      </c>
+      <c r="CK5">
+        <v>1999797.271389327</v>
+      </c>
+      <c r="CL5">
+        <v>1995576.844021389</v>
+      </c>
+      <c r="CM5">
+        <v>1990449.272376769</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:91">
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.332335427828166E-09</v>
+      </c>
+      <c r="C2">
+        <v>3.61774699622815E-08</v>
+      </c>
+      <c r="D2">
+        <v>3.006684872172243E-07</v>
+      </c>
+      <c r="E2">
+        <v>2.095320625685701E-06</v>
+      </c>
+      <c r="F2">
+        <v>1.261246519112248E-05</v>
+      </c>
+      <c r="G2">
+        <v>6.691600958933083E-05</v>
+      </c>
+      <c r="H2">
+        <v>0.0003180129245194235</v>
+      </c>
+      <c r="I2">
+        <v>0.001371742325092338</v>
+      </c>
+      <c r="J2">
+        <v>0.005428358598040138</v>
+      </c>
+      <c r="K2">
+        <v>0.01986929575103361</v>
+      </c>
+      <c r="L2">
+        <v>0.06757458376157197</v>
+      </c>
+      <c r="M2">
+        <v>0.2130254181665698</v>
+      </c>
+      <c r="N2">
+        <v>0.6122494201164548</v>
+      </c>
+      <c r="O2">
+        <v>1.539476670735822</v>
+      </c>
+      <c r="P2">
+        <v>3.172459408337398</v>
+      </c>
+      <c r="Q2">
+        <v>5.14091889425548</v>
+      </c>
+      <c r="R2">
+        <v>6.951979927875528</v>
+      </c>
+      <c r="S2">
+        <v>8.91542148461728</v>
+      </c>
+      <c r="T2">
+        <v>11.58362852329001</v>
+      </c>
+      <c r="U2">
+        <v>15.39054825561969</v>
+      </c>
+      <c r="V2">
+        <v>21.16542025804313</v>
+      </c>
+      <c r="W2">
+        <v>29.66772538321894</v>
+      </c>
+      <c r="X2">
+        <v>41.10820363654771</v>
+      </c>
+      <c r="Y2">
+        <v>56.06670420904645</v>
+      </c>
+      <c r="Z2">
+        <v>75.34395800804923</v>
+      </c>
+      <c r="AA2">
+        <v>97.95423840650727</v>
+      </c>
+      <c r="AB2">
+        <v>124.5284271048208</v>
+      </c>
+      <c r="AC2">
+        <v>157.3611902940256</v>
+      </c>
+      <c r="AD2">
+        <v>195.881923407112</v>
+      </c>
+      <c r="AE2">
+        <v>241.6401130050878</v>
+      </c>
+      <c r="AF2">
+        <v>291.7210249658565</v>
+      </c>
+      <c r="AG2">
+        <v>345.0870748623161</v>
+      </c>
+      <c r="AH2">
+        <v>410.3816301315925</v>
+      </c>
+      <c r="AI2">
+        <v>495.7120473279097</v>
+      </c>
+      <c r="AJ2">
+        <v>600.0725471387645</v>
+      </c>
+      <c r="AK2">
+        <v>734.5796990739157</v>
+      </c>
+      <c r="AL2">
+        <v>912.3921873048007</v>
+      </c>
+      <c r="AM2">
+        <v>1151.432000028071</v>
+      </c>
+      <c r="AN2">
+        <v>1470.556735497884</v>
+      </c>
+      <c r="AO2">
+        <v>1846.074417953303</v>
+      </c>
+      <c r="AP2">
+        <v>2251.871838489406</v>
+      </c>
+      <c r="AQ2">
+        <v>2683.562986177456</v>
+      </c>
+      <c r="AR2">
+        <v>3136.573082166283</v>
+      </c>
+      <c r="AS2">
+        <v>3606.712051781158</v>
+      </c>
+      <c r="AT2">
+        <v>4095.328727182603</v>
+      </c>
+      <c r="AU2">
+        <v>4596.953794391784</v>
+      </c>
+      <c r="AV2">
+        <v>5085.616098878347</v>
+      </c>
+      <c r="AW2">
+        <v>5512.114450609716</v>
+      </c>
+      <c r="AX2">
+        <v>5840.060102418784</v>
+      </c>
+      <c r="AY2">
+        <v>6118.321088948253</v>
+      </c>
+      <c r="AZ2">
+        <v>6395.651280205997</v>
+      </c>
+      <c r="BA2">
+        <v>6667.390768066314</v>
+      </c>
+      <c r="BB2">
+        <v>6916.146553127187</v>
+      </c>
+      <c r="BC2">
+        <v>7129.898708853033</v>
+      </c>
+      <c r="BD2">
+        <v>7330.070735069778</v>
+      </c>
+      <c r="BE2">
+        <v>7542.776821832093</v>
+      </c>
+      <c r="BF2">
+        <v>7780.28495573242</v>
+      </c>
+      <c r="BG2">
+        <v>8057.099508024701</v>
+      </c>
+      <c r="BH2">
+        <v>8388.872517089327</v>
+      </c>
+      <c r="BI2">
+        <v>8780.610396484692</v>
+      </c>
+      <c r="BJ2">
+        <v>9236.698001504859</v>
+      </c>
+      <c r="BK2">
+        <v>9764.704523797709</v>
+      </c>
+      <c r="BL2">
+        <v>10366.88290998814</v>
+      </c>
+      <c r="BM2">
+        <v>11038.42126634799</v>
+      </c>
+      <c r="BN2">
+        <v>11755.2527050258</v>
+      </c>
+      <c r="BO2">
+        <v>12497.424174684</v>
+      </c>
+      <c r="BP2">
+        <v>13260.51844020583</v>
+      </c>
+      <c r="BQ2">
+        <v>14040.13510185672</v>
+      </c>
+      <c r="BR2">
+        <v>14823.08880814708</v>
+      </c>
+      <c r="BS2">
+        <v>15581.11894566931</v>
+      </c>
+      <c r="BT2">
+        <v>16286.33626831872</v>
+      </c>
+      <c r="BU2">
+        <v>16932.41424651957</v>
+      </c>
+      <c r="BV2">
+        <v>17536.45640814068</v>
+      </c>
+      <c r="BW2">
+        <v>18117.53762875326</v>
+      </c>
+      <c r="BX2">
+        <v>18683.33137665077</v>
+      </c>
+      <c r="BY2">
+        <v>19232.51913019483</v>
+      </c>
+      <c r="BZ2">
+        <v>19766.12209779234</v>
+      </c>
+      <c r="CA2">
+        <v>20295.53088406598</v>
+      </c>
+      <c r="CB2">
+        <v>20837.33308723814</v>
+      </c>
+      <c r="CC2">
+        <v>21410.15886256577</v>
+      </c>
+      <c r="CD2">
+        <v>22029.72374172365</v>
+      </c>
+      <c r="CE2">
+        <v>22705.84056506589</v>
+      </c>
+      <c r="CF2">
+        <v>23443.5266479147</v>
+      </c>
+      <c r="CG2">
+        <v>24245.78729531838</v>
+      </c>
+      <c r="CH2">
+        <v>25116.55338437896</v>
+      </c>
+      <c r="CI2">
+        <v>26054.52440235707</v>
+      </c>
+      <c r="CJ2">
+        <v>27049.05650806446</v>
+      </c>
+      <c r="CK2">
+        <v>28083.59172439018</v>
+      </c>
+      <c r="CL2">
+        <v>29143.16906185099</v>
+      </c>
+      <c r="CM2">
+        <v>30218.70435719678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.51259637456597E-10</v>
+      </c>
+      <c r="C3">
+        <v>3.813447132880647E-09</v>
+      </c>
+      <c r="D3">
+        <v>3.169329921969418E-08</v>
+      </c>
+      <c r="E3">
+        <v>2.208665901959861E-07</v>
+      </c>
+      <c r="F3">
+        <v>1.329472991665495E-06</v>
+      </c>
+      <c r="G3">
+        <v>7.053579622298021E-06</v>
+      </c>
+      <c r="H3">
+        <v>3.352156677877056E-05</v>
+      </c>
+      <c r="I3">
+        <v>0.0001445946010632668</v>
+      </c>
+      <c r="J3">
+        <v>0.0005722002824831783</v>
+      </c>
+      <c r="K3">
+        <v>0.002094411494035785</v>
+      </c>
+      <c r="L3">
+        <v>0.007122999562153976</v>
+      </c>
+      <c r="M3">
+        <v>0.02245489170428368</v>
+      </c>
+      <c r="N3">
+        <v>0.06453687331328498</v>
+      </c>
+      <c r="O3">
+        <v>0.1622753858209253</v>
+      </c>
+      <c r="P3">
+        <v>0.3344071945196229</v>
+      </c>
+      <c r="Q3">
+        <v>0.5419014220206724</v>
+      </c>
+      <c r="R3">
+        <v>0.7328043655745143</v>
+      </c>
+      <c r="S3">
+        <v>0.9397696559317994</v>
+      </c>
+      <c r="T3">
+        <v>1.221023886594335</v>
+      </c>
+      <c r="U3">
+        <v>1.622309193540766</v>
+      </c>
+      <c r="V3">
+        <v>2.231035262648269</v>
+      </c>
+      <c r="W3">
+        <v>3.127258551238718</v>
+      </c>
+      <c r="X3">
+        <v>4.333193046918653</v>
+      </c>
+      <c r="Y3">
+        <v>5.909960332742183</v>
+      </c>
+      <c r="Z3">
+        <v>7.941965011517782</v>
+      </c>
+      <c r="AA3">
+        <v>10.32530218376955</v>
+      </c>
+      <c r="AB3">
+        <v>13.12647274118744</v>
+      </c>
+      <c r="AC3">
+        <v>16.58735617993984</v>
+      </c>
+      <c r="AD3">
+        <v>20.64780538768471</v>
+      </c>
+      <c r="AE3">
+        <v>25.47115088724948</v>
+      </c>
+      <c r="AF3">
+        <v>30.75015216423091</v>
+      </c>
+      <c r="AG3">
+        <v>36.37543801708344</v>
+      </c>
+      <c r="AH3">
+        <v>43.25810103481085</v>
+      </c>
+      <c r="AI3">
+        <v>52.25273319521536</v>
+      </c>
+      <c r="AJ3">
+        <v>63.25331585631967</v>
+      </c>
+      <c r="AK3">
+        <v>77.43164047199424</v>
+      </c>
+      <c r="AL3">
+        <v>96.17475667501796</v>
+      </c>
+      <c r="AM3">
+        <v>121.3718113453495</v>
+      </c>
+      <c r="AN3">
+        <v>155.0105735025002</v>
+      </c>
+      <c r="AO3">
+        <v>194.5936850633313</v>
+      </c>
+      <c r="AP3">
+        <v>237.3685670959103</v>
+      </c>
+      <c r="AQ3">
+        <v>282.8728926100301</v>
+      </c>
+      <c r="AR3">
+        <v>330.6244366930104</v>
+      </c>
+      <c r="AS3">
+        <v>380.1815258869902</v>
+      </c>
+      <c r="AT3">
+        <v>431.6863398452354</v>
+      </c>
+      <c r="AU3">
+        <v>484.5623612011875</v>
+      </c>
+      <c r="AV3">
+        <v>536.0719848961004</v>
+      </c>
+      <c r="AW3">
+        <v>581.0289406556939</v>
+      </c>
+      <c r="AX3">
+        <v>615.597510733586</v>
+      </c>
+      <c r="AY3">
+        <v>644.9288476783661</v>
+      </c>
+      <c r="AZ3">
+        <v>674.1620700075041</v>
+      </c>
+      <c r="BA3">
+        <v>702.8059793784962</v>
+      </c>
+      <c r="BB3">
+        <v>729.0271893281385</v>
+      </c>
+      <c r="BC3">
+        <v>751.5586860372682</v>
+      </c>
+      <c r="BD3">
+        <v>772.6587087932822</v>
+      </c>
+      <c r="BE3">
+        <v>795.0799399505664</v>
+      </c>
+      <c r="BF3">
+        <v>820.115541201907</v>
+      </c>
+      <c r="BG3">
+        <v>849.2944103124121</v>
+      </c>
+      <c r="BH3">
+        <v>884.2664200052892</v>
+      </c>
+      <c r="BI3">
+        <v>925.5592935693749</v>
+      </c>
+      <c r="BJ3">
+        <v>973.6352361800635</v>
+      </c>
+      <c r="BK3">
+        <v>1029.292112149534</v>
+      </c>
+      <c r="BL3">
+        <v>1092.767403337525</v>
+      </c>
+      <c r="BM3">
+        <v>1163.553890683097</v>
+      </c>
+      <c r="BN3">
+        <v>1239.114696826662</v>
+      </c>
+      <c r="BO3">
+        <v>1317.346581644054</v>
+      </c>
+      <c r="BP3">
+        <v>1397.783926820648</v>
+      </c>
+      <c r="BQ3">
+        <v>1479.962888650158</v>
+      </c>
+      <c r="BR3">
+        <v>1562.493606512523</v>
+      </c>
+      <c r="BS3">
+        <v>1642.397144752901</v>
+      </c>
+      <c r="BT3">
+        <v>1716.733713338791</v>
+      </c>
+      <c r="BU3">
+        <v>1784.83643628089</v>
+      </c>
+      <c r="BV3">
+        <v>1848.508187007922</v>
+      </c>
+      <c r="BW3">
+        <v>1909.759637621415</v>
+      </c>
+      <c r="BX3">
+        <v>1969.399644177183</v>
+      </c>
+      <c r="BY3">
+        <v>2027.289222037361</v>
+      </c>
+      <c r="BZ3">
+        <v>2083.536016216249</v>
+      </c>
+      <c r="CA3">
+        <v>2139.340704057657</v>
+      </c>
+      <c r="CB3">
+        <v>2196.451775131158</v>
+      </c>
+      <c r="CC3">
+        <v>2256.833023815513</v>
+      </c>
+      <c r="CD3">
+        <v>2322.141015627031</v>
+      </c>
+      <c r="CE3">
+        <v>2393.410116649159</v>
+      </c>
+      <c r="CF3">
+        <v>2471.169199319637</v>
+      </c>
+      <c r="CG3">
+        <v>2555.735051184188</v>
+      </c>
+      <c r="CH3">
+        <v>2647.522023827654</v>
+      </c>
+      <c r="CI3">
+        <v>2746.393030920273</v>
+      </c>
+      <c r="CJ3">
+        <v>2851.226111039522</v>
+      </c>
+      <c r="CK3">
+        <v>2960.275896960831</v>
+      </c>
+      <c r="CL3">
+        <v>3071.965359043669</v>
+      </c>
+      <c r="CM3">
+        <v>3185.336940655777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0409654194055099</v>
+      </c>
+      <c r="C4">
+        <v>0.1156368032960017</v>
+      </c>
+      <c r="D4">
+        <v>0.247380942290079</v>
+      </c>
+      <c r="E4">
+        <v>0.4744677705147549</v>
+      </c>
+      <c r="F4">
+        <v>0.8585311483549576</v>
+      </c>
+      <c r="G4">
+        <v>1.496690869937934</v>
+      </c>
+      <c r="H4">
+        <v>2.540713678768242</v>
+      </c>
+      <c r="I4">
+        <v>4.234165825897096</v>
+      </c>
+      <c r="J4">
+        <v>6.999865590288385</v>
+      </c>
+      <c r="K4">
+        <v>11.66355342815213</v>
+      </c>
+      <c r="L4">
+        <v>20.00298857139739</v>
+      </c>
+      <c r="M4">
+        <v>35.82873536796669</v>
+      </c>
+      <c r="N4">
+        <v>65.70244521460968</v>
+      </c>
+      <c r="O4">
+        <v>114.3870131290998</v>
+      </c>
+      <c r="P4">
+        <v>176.1690145903653</v>
+      </c>
+      <c r="Q4">
+        <v>246.538304521153</v>
+      </c>
+      <c r="R4">
+        <v>329.2524089326865</v>
+      </c>
+      <c r="S4">
+        <v>429.8113713866117</v>
+      </c>
+      <c r="T4">
+        <v>552.9331987038165</v>
+      </c>
+      <c r="U4">
+        <v>702.5344054174178</v>
+      </c>
+      <c r="V4">
+        <v>885.2499770913239</v>
+      </c>
+      <c r="W4">
+        <v>1107.200525231504</v>
+      </c>
+      <c r="X4">
+        <v>1369.480599121263</v>
+      </c>
+      <c r="Y4">
+        <v>1680.04290570321</v>
+      </c>
+      <c r="Z4">
+        <v>2050.044865150688</v>
+      </c>
+      <c r="AA4">
+        <v>2490.273768988704</v>
+      </c>
+      <c r="AB4">
+        <v>3029.536210131921</v>
+      </c>
+      <c r="AC4">
+        <v>3691.15029967163</v>
+      </c>
+      <c r="AD4">
+        <v>4484.412038953534</v>
+      </c>
+      <c r="AE4">
+        <v>5446.627671541482</v>
+      </c>
+      <c r="AF4">
+        <v>6634.347539753355</v>
+      </c>
+      <c r="AG4">
+        <v>8117.753260406946</v>
+      </c>
+      <c r="AH4">
+        <v>9974.102796871357</v>
+      </c>
+      <c r="AI4">
+        <v>12283.95227796024</v>
+      </c>
+      <c r="AJ4">
+        <v>15169.67750622483</v>
+      </c>
+      <c r="AK4">
+        <v>18767.87747926882</v>
+      </c>
+      <c r="AL4">
+        <v>23153.9536180342</v>
+      </c>
+      <c r="AM4">
+        <v>28447.46056598963</v>
+      </c>
+      <c r="AN4">
+        <v>34750.11854498208</v>
+      </c>
+      <c r="AO4">
+        <v>41871.21808920751</v>
+      </c>
+      <c r="AP4">
+        <v>49590.89282518457</v>
+      </c>
+      <c r="AQ4">
+        <v>57806.95522641458</v>
+      </c>
+      <c r="AR4">
+        <v>66392.68477604783</v>
+      </c>
+      <c r="AS4">
+        <v>75201.80712386442</v>
+      </c>
+      <c r="AT4">
+        <v>84100.38032982394</v>
+      </c>
+      <c r="AU4">
+        <v>92923.76089800312</v>
+      </c>
+      <c r="AV4">
+        <v>101434.7621327866</v>
+      </c>
+      <c r="AW4">
+        <v>109330.3482900518</v>
+      </c>
+      <c r="AX4">
+        <v>116397.932780246</v>
+      </c>
+      <c r="AY4">
+        <v>122803.7501958428</v>
+      </c>
+      <c r="AZ4">
+        <v>128735.3679062858</v>
+      </c>
+      <c r="BA4">
+        <v>134199.24048424</v>
+      </c>
+      <c r="BB4">
+        <v>139203.5159744257</v>
+      </c>
+      <c r="BC4">
+        <v>143809.6641171286</v>
+      </c>
+      <c r="BD4">
+        <v>148193.94852975</v>
+      </c>
+      <c r="BE4">
+        <v>152560.46985903</v>
+      </c>
+      <c r="BF4">
+        <v>157090.7541611027</v>
+      </c>
+      <c r="BG4">
+        <v>161986.4529144493</v>
+      </c>
+      <c r="BH4">
+        <v>167439.5516977306</v>
+      </c>
+      <c r="BI4">
+        <v>173564.2488291978</v>
+      </c>
+      <c r="BJ4">
+        <v>180437.644762117</v>
+      </c>
+      <c r="BK4">
+        <v>188105.4301331644</v>
+      </c>
+      <c r="BL4">
+        <v>196539.3797778198</v>
+      </c>
+      <c r="BM4">
+        <v>205664.5207131919</v>
+      </c>
+      <c r="BN4">
+        <v>215350.0057859654</v>
+      </c>
+      <c r="BO4">
+        <v>225476.7870547279</v>
+      </c>
+      <c r="BP4">
+        <v>235963.6499899331</v>
+      </c>
+      <c r="BQ4">
+        <v>246716.718592933</v>
+      </c>
+      <c r="BR4">
+        <v>257602.4086156528</v>
+      </c>
+      <c r="BS4">
+        <v>268433.821709146</v>
+      </c>
+      <c r="BT4">
+        <v>279035.5950841814</v>
+      </c>
+      <c r="BU4">
+        <v>289330.5485167245</v>
+      </c>
+      <c r="BV4">
+        <v>299349.8661052819</v>
+      </c>
+      <c r="BW4">
+        <v>309144.513469409</v>
+      </c>
+      <c r="BX4">
+        <v>318730.8076699071</v>
+      </c>
+      <c r="BY4">
+        <v>328109.4691582149</v>
+      </c>
+      <c r="BZ4">
+        <v>337304.0700204854</v>
+      </c>
+      <c r="CA4">
+        <v>346379.0640569137</v>
+      </c>
+      <c r="CB4">
+        <v>355430.5483571792</v>
+      </c>
+      <c r="CC4">
+        <v>364584.1500914202</v>
+      </c>
+      <c r="CD4">
+        <v>373974.5071307814</v>
+      </c>
+      <c r="CE4">
+        <v>383714.8975708169</v>
+      </c>
+      <c r="CF4">
+        <v>393883.2077160075</v>
+      </c>
+      <c r="CG4">
+        <v>404526.6145541796</v>
+      </c>
+      <c r="CH4">
+        <v>415667.5101480812</v>
+      </c>
+      <c r="CI4">
+        <v>427290.6127558078</v>
+      </c>
+      <c r="CJ4">
+        <v>439344.8372540753</v>
+      </c>
+      <c r="CK4">
+        <v>451763.2383683803</v>
+      </c>
+      <c r="CL4">
+        <v>464483.8832779971</v>
+      </c>
+      <c r="CM4">
+        <v>477454.7668370956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1112041473722619</v>
+      </c>
+      <c r="C5">
+        <v>0.3127542460117911</v>
+      </c>
+      <c r="D5">
+        <v>0.6661634148447663</v>
+      </c>
+      <c r="E5">
+        <v>1.271385451400339</v>
+      </c>
+      <c r="F5">
+        <v>2.287953624076057</v>
+      </c>
+      <c r="G5">
+        <v>3.962962767554074</v>
+      </c>
+      <c r="H5">
+        <v>6.666155456443876</v>
+      </c>
+      <c r="I5">
+        <v>10.93243876033211</v>
+      </c>
+      <c r="J5">
+        <v>17.51234629233177</v>
+      </c>
+      <c r="K5">
+        <v>27.43016860166777</v>
+      </c>
+      <c r="L5">
+        <v>42.04752777975791</v>
+      </c>
+      <c r="M5">
+        <v>63.12862370772218</v>
+      </c>
+      <c r="N5">
+        <v>92.90241355424439</v>
+      </c>
+      <c r="O5">
+        <v>134.1161057469166</v>
+      </c>
+      <c r="P5">
+        <v>190.0813184956214</v>
+      </c>
+      <c r="Q5">
+        <v>264.7347664605787</v>
+      </c>
+      <c r="R5">
+        <v>362.7329389050348</v>
+      </c>
+      <c r="S5">
+        <v>489.6083135216141</v>
+      </c>
+      <c r="T5">
+        <v>652.0712707604853</v>
+      </c>
+      <c r="U5">
+        <v>858.5395159265585</v>
+      </c>
+      <c r="V5">
+        <v>1119.94816526213</v>
+      </c>
+      <c r="W5">
+        <v>1450.887519814175</v>
+      </c>
+      <c r="X5">
+        <v>1871.117277110493</v>
+      </c>
+      <c r="Y5">
+        <v>2407.508038360676</v>
+      </c>
+      <c r="Z5">
+        <v>3096.446695702777</v>
+      </c>
+      <c r="AA5">
+        <v>3986.704167482448</v>
+      </c>
+      <c r="AB5">
+        <v>5142.695697195684</v>
+      </c>
+      <c r="AC5">
+        <v>6647.937830545332</v>
+      </c>
+      <c r="AD5">
+        <v>8608.304125497534</v>
+      </c>
+      <c r="AE5">
+        <v>11154.53192514794</v>
+      </c>
+      <c r="AF5">
+        <v>14443.32377520158</v>
+      </c>
+      <c r="AG5">
+        <v>18656.2972175469</v>
+      </c>
+      <c r="AH5">
+        <v>23996.00834769295</v>
+      </c>
+      <c r="AI5">
+        <v>30678.33941542192</v>
+      </c>
+      <c r="AJ5">
+        <v>38920.77396023033</v>
+      </c>
+      <c r="AK5">
+        <v>48926.51116569161</v>
+      </c>
+      <c r="AL5">
+        <v>60865.00409887491</v>
+      </c>
+      <c r="AM5">
+        <v>74850.33485464119</v>
+      </c>
+      <c r="AN5">
+        <v>90919.7623578628</v>
+      </c>
+      <c r="AO5">
+        <v>109015.5642790544</v>
+      </c>
+      <c r="AP5">
+        <v>128973.6504541651</v>
+      </c>
+      <c r="AQ5">
+        <v>150522.0766542827</v>
+      </c>
+      <c r="AR5">
+        <v>173291.404755464</v>
+      </c>
+      <c r="AS5">
+        <v>196836.9720446736</v>
+      </c>
+      <c r="AT5">
+        <v>220670.9441719272</v>
+      </c>
+      <c r="AU5">
+        <v>244300.1509921759</v>
+      </c>
+      <c r="AV5">
+        <v>267264.7459526976</v>
+      </c>
+      <c r="AW5">
+        <v>289173.0015826225</v>
+      </c>
+      <c r="AX5">
+        <v>309728.8984838824</v>
+      </c>
+      <c r="AY5">
+        <v>328750.9458871207</v>
+      </c>
+      <c r="AZ5">
+        <v>346182.0685086678</v>
+      </c>
+      <c r="BA5">
+        <v>362090.8801738649</v>
+      </c>
+      <c r="BB5">
+        <v>376664.3917656666</v>
+      </c>
+      <c r="BC5">
+        <v>390191.9496035288</v>
+      </c>
+      <c r="BD5">
+        <v>403040.7941124873</v>
+      </c>
+      <c r="BE5">
+        <v>415625.2052955267</v>
+      </c>
+      <c r="BF5">
+        <v>428372.9855906417</v>
+      </c>
+      <c r="BG5">
+        <v>441693.8552829581</v>
+      </c>
+      <c r="BH5">
+        <v>455953.5262862669</v>
+      </c>
+      <c r="BI5">
+        <v>471455.1438940059</v>
+      </c>
+      <c r="BJ5">
+        <v>488427.6170586818</v>
+      </c>
+      <c r="BK5">
+        <v>507019.2410284501</v>
+      </c>
+      <c r="BL5">
+        <v>527295.2647465992</v>
+      </c>
+      <c r="BM5">
+        <v>549239.015338401</v>
+      </c>
+      <c r="BN5">
+        <v>572756.875746144</v>
+      </c>
+      <c r="BO5">
+        <v>597687.3170361458</v>
+      </c>
+      <c r="BP5">
+        <v>623813.5745904938</v>
+      </c>
+      <c r="BQ5">
+        <v>650879.0250616773</v>
+      </c>
+      <c r="BR5">
+        <v>678604.1974694192</v>
+      </c>
+      <c r="BS5">
+        <v>706704.4987890687</v>
+      </c>
+      <c r="BT5">
+        <v>734907.8235574294</v>
+      </c>
+      <c r="BU5">
+        <v>762971.0983903739</v>
+      </c>
+      <c r="BV5">
+        <v>790694.623420966</v>
+      </c>
+      <c r="BW5">
+        <v>817933.0662937619</v>
+      </c>
+      <c r="BX5">
+        <v>844602.2662663598</v>
+      </c>
+      <c r="BY5">
+        <v>870681.512944878</v>
+      </c>
+      <c r="BZ5">
+        <v>896211.4481910599</v>
+      </c>
+      <c r="CA5">
+        <v>921288.0448543188</v>
+      </c>
+      <c r="CB5">
+        <v>946053.2645936663</v>
+      </c>
+      <c r="CC5">
+        <v>970683.1194462343</v>
+      </c>
+      <c r="CD5">
+        <v>995374.035285606</v>
+      </c>
+      <c r="CE5">
+        <v>1020328.58776678</v>
+      </c>
+      <c r="CF5">
+        <v>1045741.737050551</v>
+      </c>
+      <c r="CG5">
+        <v>1071788.564775465</v>
+      </c>
+      <c r="CH5">
+        <v>1098614.258895709</v>
+      </c>
+      <c r="CI5">
+        <v>1126326.797379329</v>
+      </c>
+      <c r="CJ5">
+        <v>1154992.529036273</v>
+      </c>
+      <c r="CK5">
+        <v>1184634.660138775</v>
+      </c>
+      <c r="CL5">
+        <v>1215234.505893305</v>
+      </c>
+      <c r="CM5">
+        <v>1246735.230984303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>